--- a/data/result2.xlsx
+++ b/data/result2.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Output1" sheetId="8" r:id="rId1"/>
+    <sheet name="Output3" sheetId="9" r:id="rId2"/>
+    <sheet name="Output4" sheetId="10" r:id="rId3"/>
+    <sheet name="Output5" r:id="rId7" sheetId="11"/>
+    <sheet name="Output6" r:id="rId8" sheetId="12"/>
+    <sheet name="Output7" r:id="rId9" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="150">
   <si>
     <t>Username</t>
   </si>
@@ -116,6 +121,354 @@
   </si>
   <si>
     <t>Are Ugly and Hideous Synonyms?</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Present:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Antonym for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank made a prank call to Jisoo and talked to her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one is the suitable Synonym for enchanting? </t>
+  </si>
+  <si>
+    <t>Synonym for stare is sleep. Is it correct or incorrect?</t>
+  </si>
+  <si>
+    <t>Are ‘good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bad’ Synonyms or Antonyms?</t>
+  </si>
+  <si>
+    <t>Choose the correct Synonym for Orderly in the given words:</t>
+  </si>
+  <si>
+    <t>Are Triumph and Victory Synonyms?</t>
+  </si>
+  <si>
+    <t>Can we say ‘Seldom’ and ‘Frequent’ are Synonyms?</t>
+  </si>
+  <si>
+    <t>Are ‘Object’ and ‘Gadget’ Synonyms?</t>
+  </si>
+  <si>
+    <t>Are Young and Elderly Synonyms?</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Identify the man made non living thing:</t>
+  </si>
+  <si>
+    <t>Identify the living things:</t>
+  </si>
+  <si>
+    <t>Select the non living things:</t>
+  </si>
+  <si>
+    <t>Choose the odd one out: (non - living things)</t>
+  </si>
+  <si>
+    <t>The aeroplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> car and train are alike in many ways because they all are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one of these refers to only living things? </t>
+  </si>
+  <si>
+    <t>Non living things grow.</t>
+  </si>
+  <si>
+    <t>Elsa plays with a barbie doll. Is it a living thing?</t>
+  </si>
+  <si>
+    <t>I am a living thing. I am the baby of a sheep.</t>
+  </si>
+  <si>
+    <t>Identify the following that have life in them:</t>
+  </si>
+  <si>
+    <t>Identify the man made non living things:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the odd one out:  </t>
+  </si>
+  <si>
+    <t>Non living things:</t>
+  </si>
+  <si>
+    <t>Food and water are needed to stay alive.</t>
+  </si>
+  <si>
+    <t>Living things move</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> breathe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> need food</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> feel changes and reproduce.</t>
+  </si>
+  <si>
+    <t>All living things reproduce by laying eggs or giving birth to babies. Which of the following does not belong to the group?</t>
+  </si>
+  <si>
+    <t>A baby develops</t>
+  </si>
+  <si>
+    <t>Look at the bird below. What makes it a living thing?</t>
+  </si>
+  <si>
+    <t>Natural non living things.</t>
+  </si>
+  <si>
+    <t>Man made non living things:</t>
+  </si>
+  <si>
+    <t>Animals are:</t>
+  </si>
+  <si>
+    <t>The pair that has not been correctly matched:</t>
+  </si>
+  <si>
+    <t>Count the number of man made non living things in the picture:</t>
+  </si>
+  <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water and Air are:</t>
+  </si>
+  <si>
+    <t>Identify the following that has life in it:</t>
+  </si>
+  <si>
+    <t>Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tigers and elephants  are found in forests. They are:</t>
+  </si>
+  <si>
+    <t>A barbie doll:</t>
+  </si>
+  <si>
+    <t>Which of the following does not belong to the group?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/3rd of the earth is covered with water. Water is a: </t>
+  </si>
+  <si>
+    <t>Humans are living things. How can we prove it?</t>
+  </si>
+  <si>
+    <t>I am a living thing. I can prepare my own food. Who am I?</t>
+  </si>
+  <si>
+    <t>Identify the group that refers to only non-living things:</t>
+  </si>
+  <si>
+    <t>Which of the following living things give out waste?</t>
+  </si>
+  <si>
+    <t>All living things breathe. What is the gas needed for their survival?</t>
+  </si>
+  <si>
+    <t>Living things need water to live. Identify the following that need water to live:</t>
+  </si>
+  <si>
+    <t>Which of these do not breathe?</t>
+  </si>
+  <si>
+    <t>Find the picture that belongs to the group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one of these pairs refer to living things? </t>
+  </si>
+  <si>
+    <t>An elephant moves on its own</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> so it is a:</t>
+  </si>
+  <si>
+    <t>I am a non living thing made of wood. You write with me. Who am I?</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Complete the sentence with the correct form of the adverb:</t>
+  </si>
+  <si>
+    <t>In 3765</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the digit 7 is in _____ place.</t>
+  </si>
+  <si>
+    <t>In which of the following numbers the digit 2 has the place value 20?</t>
+  </si>
+  <si>
+    <t>Identify the number representing the given picture.</t>
+  </si>
+  <si>
+    <t>Which of the following numbers has 3 in hundreds place?</t>
+  </si>
+  <si>
+    <t>Help John to find the numeral form of the number:</t>
+  </si>
+  <si>
+    <t>Help Sanvy to identify the number:</t>
+  </si>
+  <si>
+    <t>Mathew wrote the expanded form of 1875 as given below. State whether it is True or False:</t>
+  </si>
+  <si>
+    <t>Identify the number:</t>
+  </si>
+  <si>
+    <t>Help Reny to find the correct number name of 8310.</t>
+  </si>
+  <si>
+    <t>Which of the following is the expanded form of 5001?</t>
+  </si>
+  <si>
+    <t>Find the missing part of the number name:</t>
+  </si>
+  <si>
+    <t>In a 4-digit number which place comes first from the left?</t>
+  </si>
+  <si>
+    <t>What comes just before 1010?</t>
+  </si>
+  <si>
+    <t>1000 comes ________ 999.</t>
+  </si>
+  <si>
+    <t>Identify the number which comes just after the given number?</t>
+  </si>
+  <si>
+    <t>Find the before number:</t>
+  </si>
+  <si>
+    <t>The number that comes just after the number shown on the abacus is _________.</t>
+  </si>
+  <si>
+    <t>Which of the following comes immediately after 3899?</t>
+  </si>
+  <si>
+    <t>Arranging the numbers in decreasing order is called ________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify the figure which shows Ascending order. </t>
+  </si>
+  <si>
+    <t>Descending order means _________.</t>
+  </si>
+  <si>
+    <t>Which of the following is in ascending order?</t>
+  </si>
+  <si>
+    <t>950 &gt; 850 &gt; 750 &gt; 650 is in _______ order.</t>
+  </si>
+  <si>
+    <t>Which of the following is in descending order?</t>
+  </si>
+  <si>
+    <t>Find out the missing numbers in the Ascending order:</t>
+  </si>
+  <si>
+    <t>The numbers which are having 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 and 8 at the ones place are called _________ numbers.</t>
+  </si>
+  <si>
+    <t>Identify the car which has an even number.</t>
+  </si>
+  <si>
+    <t>Which even number comes first</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if the given numbers are arranged in descending order?</t>
+  </si>
+  <si>
+    <t>What should be added to an odd number to get the next odd number?</t>
+  </si>
+  <si>
+    <t>Mary got a gift pack. It contains 4550 chocolates. Is that even or odd?</t>
+  </si>
+  <si>
+    <t>Identify the basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> which contains an odd number of pomegranates.</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Useful:</t>
+  </si>
+  <si>
+    <t>Are ‘camcorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> camera’ Synonyms or Antonyms?</t>
+  </si>
+  <si>
+    <t>Can we say ‘tough’ and ‘durable are synonyms?</t>
+  </si>
+  <si>
+    <t>Which of the following options is an Synonym for ‘knot’?</t>
+  </si>
+  <si>
+    <t>Which of the following options is an Antonym for ‘modest’?</t>
+  </si>
+  <si>
+    <t>Are ‘gentle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rough’ Synonyms or Antonyms? </t>
+  </si>
+  <si>
+    <t>Are ‘deed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> work’ Synonyms or Antonyms?</t>
+  </si>
+  <si>
+    <t>Are Award and Prize Synonyms?</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Take:</t>
+  </si>
+  <si>
+    <t>Which of the following options is an Synonym for ‘trim’?</t>
+  </si>
+  <si>
+    <t>Are ‘foe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friend’ Synonyms or Antonyms? </t>
+  </si>
+  <si>
+    <t>Which of the following options is an Antonym for ‘naive’?</t>
   </si>
 </sst>
 </file>
@@ -128,7 +481,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="266">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +644,1226 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="33">
@@ -741,10 +2314,254 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,571 +2883,3954 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="A33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s" s="28">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s" s="32">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s" s="34">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s" s="36">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s" s="38">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s" s="40">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s" s="44">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s" s="46">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s" s="48">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s" s="50">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s" s="52">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s" s="54">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s" s="56">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s" s="58">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s" s="60">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s" s="62">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s" s="64">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s" s="66">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s" s="68">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s" s="70">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s" s="72">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s" s="74">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s" s="76">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s" s="78">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s" s="80">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s" s="82">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s" s="84">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s" s="86">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s" s="88">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s" s="90">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s" s="92">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s" s="94">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s" s="96">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s" s="98">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s" s="100">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s" s="102">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s" s="104">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s" s="106">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s" s="108">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s" s="110">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s" s="112">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s" s="114">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s" s="116">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s" s="118">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s" s="120">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s" s="122">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s" s="124">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s" s="126">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s" s="128">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="130">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="131">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="133">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="135">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="138">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="139">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="141">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="144">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="146">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="147">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s" s="150">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s" s="152">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s" s="154">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="156">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s" s="158">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s" s="160">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="161">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s" s="163">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s" s="166">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s" s="168">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s" s="170">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s" s="172">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s" s="174">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s" s="176">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s" s="178">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s" s="180">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s" s="182">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s" s="184">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s" s="186">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s" s="188">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s" s="189">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s" s="191">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s" s="193">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s" s="195">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s" s="197">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s" s="199">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s" s="201">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s" s="203">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s" s="205">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s" s="207">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s" s="209">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s" s="211">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s" s="213">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s" s="215">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s" s="217">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s" s="219">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s" s="221">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s" s="223">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s" s="226">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s" s="228">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s" s="229">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s" s="231">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s" s="233">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s" s="236">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s" s="238">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s" s="239">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s" s="242">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s" s="243">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s" s="245">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
